--- a/Plotting/0.8.0/kOS.xlsx
+++ b/Plotting/0.8.0/kOS.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Kerbal Space Program\GameData\SkyhawkScienceSystem\Plotting\0.8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{924A6DA5-B0D7-4A5D-B4A1-89F86E57622E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B394BC96-0075-4739-9D85-67526DC63F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1128" windowWidth="15228" windowHeight="11184"/>
+    <workbookView xWindow="2304" yWindow="1128" windowWidth="15228" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kOS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,11 +909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,6 +942,9 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -941,7 +955,7 @@
 }"</f>
         <v>@PART[Cherry Light]:AFTER[kOS] //
 {
-	@TechRequired = electrics
+	@TechRequired = electrics1
 }</v>
       </c>
     </row>
@@ -951,6 +965,9 @@
       </c>
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -962,7 +979,7 @@
 }"</f>
         <v>@PART[KAL9000]:AFTER[kOS] //
 {
-	@TechRequired = control
+	@TechRequired = control9
 }</v>
       </c>
     </row>
@@ -973,6 +990,9 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
@@ -980,7 +1000,7 @@
         <f t="shared" si="0"/>
         <v>@PART[KR-2042]:AFTER[kOS] //
 {
-	@TechRequired = control
+	@TechRequired = control1
 }</v>
       </c>
     </row>
@@ -991,6 +1011,9 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -998,7 +1021,7 @@
         <f t="shared" si="0"/>
         <v>@PART[kOSMachine0m]:AFTER[kOS] //
 {
-	@TechRequired = control
+	@TechRequired = control1
 }</v>
       </c>
     </row>
@@ -1009,6 +1032,9 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1042,7 @@
         <f t="shared" si="0"/>
         <v>@PART[kOSMachine1m]:AFTER[kOS] //
 {
-	@TechRequired = control
+	@TechRequired = control3
 }</v>
       </c>
     </row>
@@ -1027,6 +1053,9 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1063,7 @@
         <f t="shared" si="0"/>
         <v>@PART[kOSMachineRad]:AFTER[kOS] //
 {
-	@TechRequired = control
+	@TechRequired = control7
 }</v>
       </c>
     </row>
